--- a/data/trans_orig/Q64D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Estudios-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>11.11062728869173</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15.60591764018396</v>
+        <v>15.60591764018397</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>11.48016111851198</v>
@@ -681,7 +681,7 @@
         <v>6.074285991853435</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>15.09580776687718</v>
+        <v>15.09580776687719</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>9.222528802743689</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.030906525013662</v>
+        <v>6.332738640442281</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.822076286324396</v>
+        <v>5.948359179957556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.619383197038716</v>
+        <v>7.225407021473488</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.16898340700796</v>
+        <v>10.49272231276792</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.66073132148221</v>
+        <v>8.022995247470032</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.349368590840407</v>
+        <v>4.293824785202533</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.999972746671473</v>
+        <v>3.224417565689408</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>9.930283730683295</v>
+        <v>9.947560727408771</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.324362704625077</v>
+        <v>7.317535019284418</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.866082062852448</v>
+        <v>5.752378548147362</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.707462277032681</v>
+        <v>6.641531064680033</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>11.26088286228618</v>
+        <v>10.7084938189665</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.48416207852568</v>
+        <v>11.64561112524871</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.18219270248417</v>
+        <v>12.13606068656239</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.03951859477515</v>
+        <v>15.66370677170194</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27.42604580522935</v>
+        <v>26.96541603781495</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.87742973286968</v>
+        <v>16.1889561298023</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.936162281745647</v>
+        <v>9.489308476068393</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.25929904082384</v>
+        <v>13.85832413946439</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>24.17538670768945</v>
+        <v>23.09376471074696</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.51519982099343</v>
+        <v>11.8821246552654</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9.95659340076398</v>
+        <v>9.976715525590251</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12.95088663261726</v>
+        <v>12.95710609541872</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>22.17450631399151</v>
+        <v>21.87236701897602</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.355883271472674</v>
+        <v>8.352822070032845</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.335683627045332</v>
+        <v>7.399485007608816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.505146468419</v>
+        <v>7.59921577995077</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.94833069427625</v>
+        <v>16.87585436307008</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.419918002394727</v>
+        <v>5.206605282793643</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.806729689344702</v>
+        <v>6.764790302066426</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>6.794074454613504</v>
+        <v>6.834100914383872</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>14.63008930862074</v>
+        <v>14.56410666512327</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.569958397328217</v>
+        <v>7.579241828466769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.548275938276179</v>
+        <v>7.553997339778252</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.598703292392955</v>
+        <v>7.464798033381506</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.50972675025936</v>
+        <v>16.51355773445171</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.67975058770318</v>
+        <v>12.38287785209485</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.99539848965394</v>
+        <v>10.79185869728242</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.2295747947175</v>
+        <v>11.33631595817354</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21.11373696852159</v>
+        <v>21.18796896669802</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>8.332649480836006</v>
+        <v>8.077427759341708</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>10.31608163640002</v>
+        <v>10.4354556203324</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>10.24242080278027</v>
+        <v>9.957789518951545</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>18.93331672325316</v>
+        <v>18.74885803904638</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>10.16074570591755</v>
+        <v>10.32645544421311</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10.07755667310512</v>
+        <v>9.943370141537118</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10.17865520342996</v>
+        <v>10.15472748332847</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>19.50547932334179</v>
+        <v>19.63727702421986</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.30293003624414</v>
+        <v>9.035550284473837</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.704299530592141</v>
+        <v>6.857666375851853</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.317730344435599</v>
+        <v>9.39571140164146</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14.24444510831794</v>
+        <v>14.26354285782674</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>8.60592854371213</v>
+        <v>8.631231785524307</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.565264272379655</v>
+        <v>7.292222430224951</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>12.51770905149619</v>
+        <v>12.57710040256976</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>14.90113669672806</v>
+        <v>14.66852371983202</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>9.767615307522457</v>
+        <v>9.622881713431378</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7.705753294298651</v>
+        <v>7.709604943730799</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11.68883188305099</v>
+        <v>11.71015385903404</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>15.65137347917716</v>
+        <v>15.42342683854309</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.12795905183127</v>
+        <v>14.98776773178214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.74302758749892</v>
+        <v>11.95415465878326</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.18466237132394</v>
+        <v>15.75870205823626</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.37793486978735</v>
+        <v>22.19613294282804</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.0837616102799</v>
+        <v>14.33510642016953</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.37856746297586</v>
+        <v>13.72738169865585</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>20.57903366507243</v>
+        <v>20.52723081316919</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>22.10060597314006</v>
+        <v>22.23159039706046</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.84391905199018</v>
+        <v>13.96074307738902</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11.41368619354093</v>
+        <v>11.52365815083806</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16.28752149367175</v>
+        <v>16.70003476192252</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>21.00874780691218</v>
+        <v>20.72706741769534</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.772071340641194</v>
+        <v>8.806802513868234</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.619035191234526</v>
+        <v>7.654801392003542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.636881484905903</v>
+        <v>8.694564804277791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.55757409599917</v>
+        <v>16.6962142388909</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.420301953738024</v>
+        <v>7.400011574387769</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.307999069219804</v>
+        <v>7.295000862755383</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.947034144655881</v>
+        <v>8.87984966379191</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>15.33817787769837</v>
+        <v>15.21872123731175</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>8.558674126504659</v>
+        <v>8.593964758242686</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.761304764804386</v>
+        <v>7.78562678667995</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9.158275773169816</v>
+        <v>9.117425212713728</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>16.38637873554583</v>
+        <v>16.52926605144435</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.63925614828783</v>
+        <v>11.61667511259758</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.39834776546364</v>
+        <v>10.38517652475344</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.64741605959622</v>
+        <v>11.59752532318661</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20.1691080811082</v>
+        <v>20.27108852004296</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>10.05444615010455</v>
+        <v>9.958067363933349</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>9.790760804609906</v>
+        <v>9.809022270455396</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>12.25439289723589</v>
+        <v>12.15870289490082</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.91996134138651</v>
+        <v>18.87839419881005</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>10.63534319580461</v>
+        <v>10.55205013455345</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9.655726026484583</v>
+        <v>9.776027196323932</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11.34502013911839</v>
+        <v>11.36540201889077</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>19.04638889895376</v>
+        <v>19.02865509784416</v>
       </c>
     </row>
     <row r="16">
